--- a/latest_projections/DailyProjections_citywide20221130.xlsx
+++ b/latest_projections/DailyProjections_citywide20221130.xlsx
@@ -458,57 +458,57 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20621 (15147, 28663)</t>
+          <t>21443 (16491, 28604)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2117 (1764, 2627)</t>
+          <t>2309 (1967, 2800)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>160 (103, 234)</t>
+          <t>159 (103, 228)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>134 (78, 205)</t>
+          <t>134 (79, 201)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>25 (15, 37)</t>
+          <t>24 (15, 35)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>20 (12, 30)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>14 (9, 22)</t>
+          <t>14 (10, 22)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>170 (111, 245)</t>
+          <t>157 (102, 226)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>144 (85, 215)</t>
+          <t>132 (78, 199)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>26 (16, 38)</t>
+          <t>24 (14, 35)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>20 (12, 31)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
     </row>
@@ -535,57 +535,57 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20284 (14904, 28456)</t>
+          <t>21073 (16136, 28483)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2090 (1723, 2639)</t>
+          <t>2279 (1926, 2804)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>158 (101, 233)</t>
+          <t>158 (102, 227)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>132 (77, 204)</t>
+          <t>133 (79, 200)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>25 (15, 37)</t>
+          <t>24 (14, 35)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>20 (12, 29)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>14 (9, 22)</t>
+          <t>14 (10, 22)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>169 (110, 244)</t>
+          <t>156 (102, 226)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>143 (84, 215)</t>
+          <t>132 (78, 199)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>26 (16, 38)</t>
+          <t>24 (14, 35)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>20 (12, 30)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
     </row>
@@ -612,57 +612,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>19945 (14580, 28424)</t>
+          <t>20716 (15736, 28449)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2065 (1685, 2651)</t>
+          <t>2255 (1889, 2815)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>156 (99, 232)</t>
+          <t>157 (101, 227)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>130 (76, 202)</t>
+          <t>132 (78, 200)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>25 (15, 36)</t>
+          <t>24 (14, 35)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>19 (12, 29)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>14 (9, 22)</t>
+          <t>14 (10, 22)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>168 (109, 243)</t>
+          <t>156 (102, 226)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>141 (83, 214)</t>
+          <t>132 (78, 199)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>26 (16, 38)</t>
+          <t>24 (15, 35)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>20 (12, 30)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
     </row>
@@ -689,57 +689,57 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>19621 (14225, 28368)</t>
+          <t>20378 (15319, 28417)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2042 (1651, 2665)</t>
+          <t>2235 (1855, 2833)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>154 (98, 230)</t>
+          <t>155 (100, 226)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>129 (74, 201)</t>
+          <t>131 (77, 199)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>24 (15, 36)</t>
+          <t>24 (14, 35)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>19 (11, 29)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>14 (9, 22)</t>
+          <t>14 (10, 22)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>167 (108, 242)</t>
+          <t>156 (102, 226)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>140 (83, 213)</t>
+          <t>132 (78, 199)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>25 (15, 38)</t>
+          <t>24 (14, 35)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>20 (12, 30)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
     </row>
@@ -766,57 +766,57 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>19312 (13870, 28304)</t>
+          <t>20046 (14898, 28342)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2022 (1617, 2679)</t>
+          <t>2215 (1822, 2853)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>151 (96, 229)</t>
+          <t>154 (99, 226)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>127 (73, 199)</t>
+          <t>130 (76, 198)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>24 (14, 36)</t>
+          <t>23 (14, 35)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>19 (11, 29)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>14 (9, 22)</t>
+          <t>14 (10, 22)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>165 (107, 241)</t>
+          <t>156 (102, 226)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>139 (82, 212)</t>
+          <t>132 (77, 199)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>25 (15, 37)</t>
+          <t>24 (14, 35)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>20 (12, 30)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
     </row>
@@ -843,57 +843,57 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>19017 (13513, 28209)</t>
+          <t>19723 (14509, 28247)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2000 (1583, 2691)</t>
+          <t>2192 (1785, 2867)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>149 (94, 227)</t>
+          <t>152 (97, 225)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>125 (72, 197)</t>
+          <t>128 (75, 197)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>24 (14, 36)</t>
+          <t>23 (14, 35)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>18 (11, 28)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>14 (10, 22)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>156 (101, 227)</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>131 (77, 200)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>24 (14, 35)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>19 (11, 28)</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>13 (9, 22)</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>164 (106, 240)</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>138 (81, 211)</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>25 (15, 37)</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>20 (12, 30)</t>
         </is>
       </c>
     </row>
@@ -920,22 +920,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18716 (13172, 28090)</t>
+          <t>19394 (14112, 28132)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1977 (1547, 2698)</t>
+          <t>2167 (1745, 2877)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>147 (92, 225)</t>
+          <t>151 (96, 224)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>123 (70, 196)</t>
+          <t>127 (73, 196)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -950,27 +950,27 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>13 (9, 22)</t>
+          <t>14 (10, 22)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>163 (105, 239)</t>
+          <t>156 (101, 227)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>137 (80, 210)</t>
+          <t>131 (77, 200)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>25 (15, 37)</t>
+          <t>24 (14, 35)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>20 (12, 30)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
     </row>
@@ -997,27 +997,27 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>18510 (12904, 28087)</t>
+          <t>19315 (13918, 28335)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1952 (1513, 2701)</t>
+          <t>2139 (1705, 2882)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>144 (90, 223)</t>
+          <t>149 (94, 222)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>120 (68, 194)</t>
+          <t>125 (72, 195)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>23 (14, 35)</t>
+          <t>23 (14, 34)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1027,27 +1027,27 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>13 (9, 22)</t>
+          <t>14 (10, 22)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>161 (103, 238)</t>
+          <t>156 (101, 227)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>135 (79, 209)</t>
+          <t>131 (77, 200)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>25 (15, 37)</t>
+          <t>24 (14, 35)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>20 (12, 30)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
     </row>
@@ -1074,57 +1074,57 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>18375 (12692, 28162)</t>
+          <t>19402 (13843, 28809)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1928 (1479, 2703)</t>
+          <t>2114 (1666, 2889)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>142 (88, 221)</t>
+          <t>147 (92, 221)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>118 (67, 192)</t>
+          <t>123 (71, 193)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>22 (13, 35)</t>
+          <t>23 (14, 34)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>18 (10, 28)</t>
+          <t>18 (11, 27)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>13 (9, 21)</t>
+          <t>14 (10, 22)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>160 (102, 237)</t>
+          <t>155 (100, 227)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>134 (78, 207)</t>
+          <t>131 (76, 200)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>24 (15, 37)</t>
+          <t>23 (14, 35)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>19 (12, 30)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
     </row>
@@ -1151,57 +1151,57 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>18214 (12462, 28164)</t>
+          <t>19403 (13718, 29116)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1904 (1446, 2705)</t>
+          <t>2091 (1631, 2902)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>139 (86, 219)</t>
+          <t>144 (90, 220)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>116 (65, 190)</t>
+          <t>121 (69, 192)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>22 (13, 34)</t>
+          <t>23 (13, 34)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>17 (10, 27)</t>
+          <t>18 (11, 27)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>13 (9, 21)</t>
+          <t>14 (10, 22)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>158 (100, 235)</t>
+          <t>155 (99, 227)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>132 (76, 206)</t>
+          <t>130 (76, 200)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>24 (15, 36)</t>
+          <t>23 (14, 35)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>19 (12, 29)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
     </row>
@@ -1228,22 +1228,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>18024 (12235, 28094)</t>
+          <t>19348 (13564, 29350)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1882 (1416, 2710)</t>
+          <t>2075 (1601, 2921)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>137 (84, 217)</t>
+          <t>143 (89, 219)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>114 (64, 188)</t>
+          <t>120 (68, 191)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1253,32 +1253,32 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>17 (10, 27)</t>
+          <t>18 (10, 27)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>13 (9, 21)</t>
+          <t>14 (10, 22)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>156 (99, 234)</t>
+          <t>154 (99, 227)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>131 (75, 205)</t>
+          <t>130 (75, 199)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>24 (14, 36)</t>
+          <t>23 (14, 35)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>19 (11, 29)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
     </row>
@@ -1305,27 +1305,27 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17812 (11993, 27992)</t>
+          <t>19268 (13407, 29485)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1861 (1386, 2716)</t>
+          <t>2061 (1574, 2944)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>134 (82, 215)</t>
+          <t>141 (87, 219)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>112 (62, 186)</t>
+          <t>118 (67, 191)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21 (12, 34)</t>
+          <t>22 (13, 34)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1335,27 +1335,27 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>13 (9, 21)</t>
+          <t>14 (9, 22)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>154 (97, 232)</t>
+          <t>153 (98, 226)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>129 (74, 203)</t>
+          <t>129 (75, 199)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>24 (14, 36)</t>
+          <t>23 (14, 35)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>19 (11, 29)</t>
+          <t>18 (11, 28)</t>
         </is>
       </c>
     </row>
@@ -1382,57 +1382,57 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>17587 (11761, 27836)</t>
+          <t>19159 (13229, 29558)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1841 (1358, 2720)</t>
+          <t>2050 (1549, 2970)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>132 (80, 213)</t>
+          <t>140 (86, 219)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>110 (61, 184)</t>
+          <t>117 (66, 191)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21 (12, 33)</t>
+          <t>22 (13, 34)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>16 (10, 27)</t>
+          <t>17 (10, 27)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>13 (9, 21)</t>
+          <t>14 (9, 22)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>152 (95, 231)</t>
+          <t>152 (97, 226)</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>127 (73, 202)</t>
+          <t>128 (74, 198)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>23 (14, 36)</t>
+          <t>23 (14, 35)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>19 (11, 29)</t>
+          <t>18 (11, 28)</t>
         </is>
       </c>
     </row>
@@ -1459,52 +1459,52 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>17359 (11532, 27651)</t>
+          <t>19028 (13049, 29581)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1820 (1330, 2724)</t>
+          <t>2040 (1526, 2995)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>130 (78, 211)</t>
+          <t>138 (84, 218)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>108 (60, 182)</t>
+          <t>116 (65, 190)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21 (12, 33)</t>
+          <t>21 (13, 33)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>16 (9, 26)</t>
+          <t>17 (10, 27)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>13 (8, 21)</t>
+          <t>14 (9, 22)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>150 (94, 229)</t>
+          <t>151 (95, 225)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>125 (71, 200)</t>
+          <t>127 (73, 198)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>23 (14, 35)</t>
+          <t>23 (14, 34)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1536,22 +1536,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>19576 (14383, 27121)</t>
+          <t>20516 (16007, 27144)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2068 (1732, 2551)</t>
+          <t>2246 (1920, 2706)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>148 (95, 217)</t>
+          <t>159 (103, 228)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>123 (72, 189)</t>
+          <t>134 (80, 200)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1561,32 +1561,32 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>19 (11, 29)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>14 (10, 21)</t>
+          <t>13 (9, 22)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>161 (104, 231)</t>
+          <t>161 (105, 231)</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>135 (80, 203)</t>
+          <t>136 (81, 203)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>25 (15, 36)</t>
+          <t>24 (15, 36)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>20 (12, 29)</t>
+          <t>19 (12, 29)</t>
         </is>
       </c>
     </row>
@@ -1613,27 +1613,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>19155 (14084, 26779)</t>
+          <t>20023 (15514, 26868)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2036 (1689, 2553)</t>
+          <t>2209 (1873, 2699)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>146 (93, 215)</t>
+          <t>157 (102, 226)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>121 (70, 187)</t>
+          <t>132 (78, 198)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>24 (14, 35)</t>
+          <t>24 (15, 35)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1643,17 +1643,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>14 (10, 21)</t>
+          <t>13 (9, 22)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>160 (103, 230)</t>
+          <t>160 (105, 231)</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>134 (79, 202)</t>
+          <t>135 (80, 203)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1690,47 +1690,47 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>18740 (13718, 26579)</t>
+          <t>19547 (15006, 26676)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2006 (1648, 2556)</t>
+          <t>2176 (1830, 2697)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>144 (92, 213)</t>
+          <t>154 (100, 224)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>119 (69, 185)</t>
+          <t>130 (77, 196)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>23 (14, 35)</t>
+          <t>24 (15, 35)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>18 (11, 28)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>14 (10, 21)</t>
+          <t>13 (9, 22)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>158 (103, 229)</t>
+          <t>160 (104, 231)</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>133 (78, 201)</t>
+          <t>135 (80, 203)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1767,47 +1767,47 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>18360 (13341, 26427)</t>
+          <t>19108 (14509, 26480)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1977 (1609, 2558)</t>
+          <t>2146 (1790, 2701)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>141 (90, 210)</t>
+          <t>152 (98, 222)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>117 (68, 183)</t>
+          <t>127 (75, 194)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>23 (14, 35)</t>
+          <t>24 (14, 35)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18 (11, 28)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>13 (9, 21)</t>
+          <t>13 (9, 22)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>157 (101, 228)</t>
+          <t>160 (104, 231)</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>131 (77, 200)</t>
+          <t>134 (80, 202)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1844,47 +1844,47 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>18012 (12961, 26260)</t>
+          <t>18685 (14022, 26282)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1947 (1568, 2559)</t>
+          <t>2116 (1749, 2706)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>139 (88, 208)</t>
+          <t>150 (97, 219)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>115 (66, 181)</t>
+          <t>125 (74, 192)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>22 (14, 34)</t>
+          <t>24 (14, 35)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>18 (11, 27)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>13 (9, 21)</t>
+          <t>13 (9, 22)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>155 (100, 227)</t>
+          <t>159 (103, 230)</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>130 (76, 199)</t>
+          <t>134 (79, 202)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1921,52 +1921,52 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>17673 (12581, 26088)</t>
+          <t>18272 (13550, 26067)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1916 (1527, 2556)</t>
+          <t>2083 (1705, 2707)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>136 (86, 205)</t>
+          <t>147 (94, 217)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>113 (65, 178)</t>
+          <t>123 (72, 189)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>22 (13, 34)</t>
+          <t>23 (14, 35)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>17 (10, 27)</t>
+          <t>18 (11, 28)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>13 (9, 21)</t>
+          <t>13 (9, 22)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>153 (99, 225)</t>
+          <t>159 (103, 230)</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>128 (75, 197)</t>
+          <t>133 (79, 202)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>24 (14, 36)</t>
+          <t>24 (15, 36)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1998,57 +1998,57 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>17353 (12222, 25883)</t>
+          <t>17865 (13100, 25845)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1885 (1485, 2552)</t>
+          <t>2046 (1658, 2703)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>134 (84, 203)</t>
+          <t>144 (92, 214)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>111 (63, 176)</t>
+          <t>120 (70, 186)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>22 (13, 33)</t>
+          <t>23 (14, 34)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>17 (10, 26)</t>
+          <t>18 (11, 28)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>13 (9, 21)</t>
+          <t>13 (9, 22)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>152 (97, 224)</t>
+          <t>158 (102, 229)</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>127 (74, 196)</t>
+          <t>133 (78, 201)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>24 (14, 35)</t>
+          <t>24 (15, 35)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>19 (12, 29)</t>
         </is>
       </c>
     </row>
@@ -2075,57 +2075,57 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>17037 (11876, 25688)</t>
+          <t>17593 (12764, 25795)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1852 (1445, 2543)</t>
+          <t>2008 (1610, 2695)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>131 (81, 200)</t>
+          <t>141 (90, 211)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>108 (61, 173)</t>
+          <t>117 (68, 184)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>21 (13, 33)</t>
+          <t>23 (14, 34)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>17 (10, 26)</t>
+          <t>18 (11, 27)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>13 (9, 21)</t>
+          <t>13 (9, 22)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>150 (96, 222)</t>
+          <t>157 (101, 228)</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>125 (72, 194)</t>
+          <t>132 (77, 200)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>23 (14, 35)</t>
+          <t>24 (15, 35)</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>19 (11, 29)</t>
         </is>
       </c>
     </row>
@@ -2152,32 +2152,32 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>16710 (11538, 25445)</t>
+          <t>17400 (12500, 25853)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1818 (1405, 2533)</t>
+          <t>1969 (1562, 2687)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>128 (79, 198)</t>
+          <t>138 (87, 208)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>106 (60, 171)</t>
+          <t>115 (66, 181)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>21 (12, 32)</t>
+          <t>22 (14, 34)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>16 (10, 26)</t>
+          <t>18 (11, 27)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2187,17 +2187,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>148 (94, 220)</t>
+          <t>155 (100, 227)</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>124 (71, 192)</t>
+          <t>130 (77, 199)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>23 (14, 35)</t>
+          <t>24 (14, 35)</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2229,32 +2229,32 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>16397 (11217, 25223)</t>
+          <t>17181 (12213, 25835)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1785 (1365, 2523)</t>
+          <t>1933 (1517, 2680)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>125 (77, 195)</t>
+          <t>135 (85, 205)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>103 (58, 168)</t>
+          <t>112 (64, 178)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>20 (12, 32)</t>
+          <t>22 (13, 33)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>16 (10, 25)</t>
+          <t>17 (10, 27)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2264,22 +2264,22 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>146 (92, 218)</t>
+          <t>154 (99, 226)</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>122 (70, 191)</t>
+          <t>129 (76, 198)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>23 (14, 35)</t>
+          <t>24 (14, 35)</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>18 (11, 28)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
     </row>
@@ -2306,57 +2306,57 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>16076 (10902, 24959)</t>
+          <t>16931 (11929, 25765)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1751 (1326, 2512)</t>
+          <t>1900 (1474, 2677)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>122 (75, 192)</t>
+          <t>132 (83, 202)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>101 (56, 166)</t>
+          <t>109 (62, 175)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>20 (12, 32)</t>
+          <t>22 (13, 33)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>16 (9, 25)</t>
+          <t>17 (10, 26)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>13 (9, 20)</t>
+          <t>13 (9, 21)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>144 (91, 216)</t>
+          <t>152 (98, 224)</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>120 (68, 189)</t>
+          <t>128 (74, 196)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>22 (13, 34)</t>
+          <t>23 (14, 35)</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>18 (11, 28)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
     </row>
@@ -2383,57 +2383,57 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>15760 (10599, 24712)</t>
+          <t>16680 (11640, 25664)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1718 (1288, 2499)</t>
+          <t>1868 (1433, 2676)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>119 (73, 189)</t>
+          <t>129 (80, 200)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>99 (55, 163)</t>
+          <t>107 (61, 173)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>20 (11, 31)</t>
+          <t>21 (13, 33)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>16 (9, 25)</t>
+          <t>17 (10, 26)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>13 (9, 20)</t>
+          <t>13 (9, 21)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>141 (89, 213)</t>
+          <t>150 (96, 222)</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>118 (67, 186)</t>
+          <t>126 (73, 195)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>22 (13, 34)</t>
+          <t>23 (14, 35)</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>18 (11, 27)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
     </row>
@@ -2460,57 +2460,57 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>15443 (10308, 24409)</t>
+          <t>16417 (11350, 25539)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1685 (1250, 2486)</t>
+          <t>1839 (1395, 2676)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>117 (71, 186)</t>
+          <t>126 (78, 197)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>96 (53, 161)</t>
+          <t>104 (59, 171)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>19 (11, 31)</t>
+          <t>21 (12, 32)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>15 (9, 24)</t>
+          <t>16 (10, 26)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>12 (9, 20)</t>
+          <t>13 (9, 21)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>139 (87, 211)</t>
+          <t>148 (94, 221)</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>116 (66, 184)</t>
+          <t>124 (72, 193)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>22 (13, 34)</t>
+          <t>23 (14, 34)</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>17 (10, 27)</t>
+          <t>18 (11, 28)</t>
         </is>
       </c>
     </row>
@@ -2537,57 +2537,57 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>15130 (10015, 24135)</t>
+          <t>16142 (11062, 25376)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1652 (1214, 2471)</t>
+          <t>1810 (1358, 2674)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>114 (68, 183)</t>
+          <t>123 (76, 195)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>94 (51, 158)</t>
+          <t>102 (57, 168)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>19 (11, 30)</t>
+          <t>20 (12, 32)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>15 (9, 24)</t>
+          <t>16 (9, 25)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>12 (8, 20)</t>
+          <t>13 (9, 21)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>136 (85, 209)</t>
+          <t>146 (93, 219)</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>114 (64, 182)</t>
+          <t>122 (71, 191)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>21 (13, 33)</t>
+          <t>23 (14, 34)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>17 (10, 27)</t>
+          <t>18 (11, 28)</t>
         </is>
       </c>
     </row>
@@ -2689,42 +2689,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1142 (597, 2082)</t>
+          <t>1075 (578, 1915)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>960 (429, 1888)</t>
+          <t>914 (417, 1739)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>129 (56, 264)</t>
+          <t>117 (52, 241)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>124 (69, 209)</t>
+          <t>114 (63, 190)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1142 (597, 2082)</t>
+          <t>1075 (578, 1915)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>960 (429, 1888)</t>
+          <t>914 (417, 1739)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>129 (56, 264)</t>
+          <t>117 (52, 241)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>124 (69, 209)</t>
+          <t>114 (63, 190)</t>
         </is>
       </c>
     </row>
@@ -2751,42 +2751,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1132 (590, 2070)</t>
+          <t>1076 (578, 1918)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>952 (424, 1876)</t>
+          <t>915 (418, 1742)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>128 (55, 262)</t>
+          <t>117 (52, 241)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>123 (68, 208)</t>
+          <t>114 (63, 190)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1132 (590, 2070)</t>
+          <t>1076 (578, 1918)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>952 (424, 1876)</t>
+          <t>915 (418, 1742)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>128 (55, 262)</t>
+          <t>117 (52, 241)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>123 (68, 208)</t>
+          <t>114 (63, 190)</t>
         </is>
       </c>
     </row>
@@ -2813,42 +2813,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1123 (583, 2057)</t>
+          <t>1077 (577, 1922)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>944 (419, 1865)</t>
+          <t>914 (418, 1746)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>127 (55, 261)</t>
+          <t>117 (51, 241)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>122 (67, 207)</t>
+          <t>114 (63, 190)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1123 (583, 2057)</t>
+          <t>1077 (577, 1922)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>944 (419, 1865)</t>
+          <t>914 (418, 1746)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>127 (55, 261)</t>
+          <t>117 (51, 241)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>122 (67, 207)</t>
+          <t>114 (63, 190)</t>
         </is>
       </c>
     </row>
@@ -2875,42 +2875,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1113 (576, 2046)</t>
+          <t>1076 (576, 1925)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>936 (413, 1854)</t>
+          <t>913 (416, 1750)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>126 (54, 259)</t>
+          <t>116 (51, 241)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>121 (67, 205)</t>
+          <t>113 (63, 190)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1113 (576, 2046)</t>
+          <t>1076 (576, 1925)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>936 (413, 1854)</t>
+          <t>913 (416, 1750)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>126 (54, 259)</t>
+          <t>116 (51, 241)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>121 (67, 205)</t>
+          <t>113 (63, 190)</t>
         </is>
       </c>
     </row>
@@ -2937,42 +2937,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1102 (568, 2035)</t>
+          <t>1074 (572, 1929)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>927 (407, 1845)</t>
+          <t>912 (414, 1754)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>125 (53, 258)</t>
+          <t>116 (51, 241)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>120 (66, 204)</t>
+          <t>113 (63, 190)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1102 (568, 2035)</t>
+          <t>1074 (572, 1929)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>927 (407, 1845)</t>
+          <t>912 (414, 1754)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>125 (53, 258)</t>
+          <t>116 (51, 241)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>120 (66, 204)</t>
+          <t>113 (63, 190)</t>
         </is>
       </c>
     </row>
@@ -2999,42 +2999,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1090 (559, 2024)</t>
+          <t>1070 (568, 1931)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>917 (400, 1834)</t>
+          <t>909 (410, 1757)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>124 (53, 256)</t>
+          <t>116 (51, 241)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>118 (65, 202)</t>
+          <t>113 (62, 189)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1090 (559, 2024)</t>
+          <t>1070 (568, 1931)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>917 (400, 1834)</t>
+          <t>909 (410, 1757)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>124 (53, 256)</t>
+          <t>116 (51, 241)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>118 (65, 202)</t>
+          <t>113 (62, 189)</t>
         </is>
       </c>
     </row>
@@ -3061,42 +3061,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1077 (549, 2012)</t>
+          <t>1066 (563, 1932)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>905 (393, 1822)</t>
+          <t>905 (406, 1757)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>122 (52, 254)</t>
+          <t>115 (51, 241)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>117 (64, 201)</t>
+          <t>113 (62, 189)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1077 (549, 2012)</t>
+          <t>1066 (563, 1932)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>905 (393, 1822)</t>
+          <t>905 (406, 1757)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>122 (52, 254)</t>
+          <t>115 (51, 241)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>117 (64, 201)</t>
+          <t>113 (62, 189)</t>
         </is>
       </c>
     </row>
@@ -3123,42 +3123,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1062 (538, 1999)</t>
+          <t>1059 (556, 1931)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>893 (385, 1809)</t>
+          <t>899 (401, 1756)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>121 (51, 253)</t>
+          <t>115 (50, 241)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>116 (63, 199)</t>
+          <t>112 (62, 189)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1062 (538, 1999)</t>
+          <t>1059 (556, 1931)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>893 (385, 1809)</t>
+          <t>899 (401, 1756)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>121 (51, 253)</t>
+          <t>115 (50, 241)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>116 (63, 199)</t>
+          <t>112 (62, 189)</t>
         </is>
       </c>
     </row>
@@ -3185,42 +3185,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1047 (527, 1984)</t>
+          <t>1051 (549, 1929)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>879 (377, 1793)</t>
+          <t>892 (395, 1752)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>119 (50, 251)</t>
+          <t>114 (50, 241)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>114 (62, 198)</t>
+          <t>111 (61, 188)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1047 (527, 1984)</t>
+          <t>1051 (549, 1929)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>879 (377, 1793)</t>
+          <t>892 (395, 1752)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>119 (50, 251)</t>
+          <t>114 (50, 241)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>114 (62, 198)</t>
+          <t>111 (61, 188)</t>
         </is>
       </c>
     </row>
@@ -3247,42 +3247,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1031 (516, 1968)</t>
+          <t>1042 (540, 1925)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>865 (368, 1777)</t>
+          <t>883 (389, 1748)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>118 (49, 249)</t>
+          <t>114 (49, 240)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>113 (61, 196)</t>
+          <t>111 (60, 188)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1031 (516, 1968)</t>
+          <t>1042 (540, 1925)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>865 (368, 1777)</t>
+          <t>883 (389, 1748)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>118 (49, 249)</t>
+          <t>114 (49, 240)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>113 (61, 196)</t>
+          <t>111 (60, 188)</t>
         </is>
       </c>
     </row>
@@ -3309,42 +3309,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1014 (504, 1950)</t>
+          <t>1032 (531, 1919)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>850 (359, 1760)</t>
+          <t>874 (382, 1741)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>116 (48, 247)</t>
+          <t>113 (49, 240)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>111 (60, 194)</t>
+          <t>110 (60, 187)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1014 (504, 1950)</t>
+          <t>1032 (531, 1919)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>850 (359, 1760)</t>
+          <t>874 (382, 1741)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>116 (48, 247)</t>
+          <t>113 (49, 240)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>111 (60, 194)</t>
+          <t>110 (60, 187)</t>
         </is>
       </c>
     </row>
@@ -3371,42 +3371,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>997 (493, 1931)</t>
+          <t>1021 (522, 1912)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>835 (350, 1741)</t>
+          <t>865 (375, 1733)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>115 (47, 245)</t>
+          <t>112 (48, 239)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>109 (59, 192)</t>
+          <t>109 (59, 187)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>997 (493, 1931)</t>
+          <t>1021 (522, 1912)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>835 (350, 1741)</t>
+          <t>865 (375, 1733)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>115 (47, 245)</t>
+          <t>112 (48, 239)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>109 (59, 192)</t>
+          <t>109 (59, 187)</t>
         </is>
       </c>
     </row>
@@ -3433,42 +3433,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>979 (481, 1911)</t>
+          <t>1011 (513, 1905)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>820 (341, 1722)</t>
+          <t>855 (369, 1725)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>113 (46, 243)</t>
+          <t>111 (47, 238)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>108 (58, 190)</t>
+          <t>108 (58, 186)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>979 (481, 1911)</t>
+          <t>1011 (513, 1905)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>820 (341, 1722)</t>
+          <t>855 (369, 1725)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>113 (46, 243)</t>
+          <t>111 (47, 238)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>108 (58, 190)</t>
+          <t>108 (58, 186)</t>
         </is>
       </c>
     </row>
@@ -3495,42 +3495,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>962 (470, 1892)</t>
+          <t>1001 (505, 1898)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>805 (332, 1702)</t>
+          <t>845 (363, 1717)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>111 (45, 241)</t>
+          <t>110 (47, 237)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>106 (56, 188)</t>
+          <t>107 (57, 185)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>962 (470, 1892)</t>
+          <t>1001 (505, 1898)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>805 (332, 1702)</t>
+          <t>845 (363, 1717)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>111 (45, 241)</t>
+          <t>110 (47, 237)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>106 (56, 188)</t>
+          <t>107 (57, 185)</t>
         </is>
       </c>
     </row>
@@ -3557,42 +3557,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1071 (556, 1952)</t>
+          <t>1112 (587, 1978)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>907 (402, 1768)</t>
+          <t>941 (426, 1793)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>122 (54, 253)</t>
+          <t>122 (53, 252)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>118 (66, 199)</t>
+          <t>119 (66, 201)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1071 (556, 1952)</t>
+          <t>1112 (587, 1978)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>907 (402, 1768)</t>
+          <t>941 (426, 1793)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>122 (54, 253)</t>
+          <t>122 (53, 252)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>118 (66, 199)</t>
+          <t>119 (66, 201)</t>
         </is>
       </c>
     </row>
@@ -3619,42 +3619,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1059 (549, 1936)</t>
+          <t>1110 (583, 1975)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>896 (396, 1751)</t>
+          <t>939 (425, 1791)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>121 (53, 252)</t>
+          <t>121 (52, 252)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>117 (65, 198)</t>
+          <t>119 (66, 200)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1059 (549, 1936)</t>
+          <t>1110 (583, 1975)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>896 (396, 1751)</t>
+          <t>939 (425, 1791)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>121 (53, 252)</t>
+          <t>121 (52, 252)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>117 (65, 198)</t>
+          <t>119 (66, 200)</t>
         </is>
       </c>
     </row>
@@ -3681,42 +3681,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1047 (541, 1920)</t>
+          <t>1105 (579, 1969)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>885 (389, 1737)</t>
+          <t>935 (422, 1788)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>120 (52, 251)</t>
+          <t>121 (52, 251)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>116 (64, 196)</t>
+          <t>118 (66, 200)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1047 (541, 1920)</t>
+          <t>1105 (579, 1969)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>885 (389, 1737)</t>
+          <t>935 (422, 1788)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>120 (52, 251)</t>
+          <t>121 (52, 251)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>116 (64, 196)</t>
+          <t>118 (66, 200)</t>
         </is>
       </c>
     </row>
@@ -3743,42 +3743,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1034 (532, 1904)</t>
+          <t>1099 (573, 1964)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>873 (383, 1720)</t>
+          <t>929 (417, 1783)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>119 (52, 249)</t>
+          <t>120 (52, 250)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>115 (64, 195)</t>
+          <t>118 (66, 199)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1034 (532, 1904)</t>
+          <t>1099 (573, 1964)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>873 (383, 1720)</t>
+          <t>929 (417, 1783)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>119 (52, 249)</t>
+          <t>120 (52, 250)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>115 (64, 195)</t>
+          <t>118 (66, 199)</t>
         </is>
       </c>
     </row>
@@ -3805,42 +3805,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1021 (522, 1888)</t>
+          <t>1091 (566, 1958)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>861 (376, 1704)</t>
+          <t>921 (412, 1777)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>117 (51, 247)</t>
+          <t>120 (51, 249)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>113 (63, 193)</t>
+          <t>117 (65, 199)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1021 (522, 1888)</t>
+          <t>1091 (566, 1958)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>861 (376, 1704)</t>
+          <t>921 (412, 1777)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>117 (51, 247)</t>
+          <t>120 (51, 249)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>113 (63, 193)</t>
+          <t>117 (65, 199)</t>
         </is>
       </c>
     </row>
@@ -3867,42 +3867,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1007 (512, 1871)</t>
+          <t>1080 (559, 1949)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>848 (368, 1687)</t>
+          <t>911 (405, 1769)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>116 (50, 246)</t>
+          <t>119 (51, 248)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>112 (62, 192)</t>
+          <t>116 (65, 198)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1007 (512, 1871)</t>
+          <t>1080 (559, 1949)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>848 (368, 1687)</t>
+          <t>911 (405, 1769)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>116 (50, 246)</t>
+          <t>119 (51, 248)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>112 (62, 192)</t>
+          <t>116 (65, 198)</t>
         </is>
       </c>
     </row>
@@ -3929,42 +3929,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>993 (502, 1853)</t>
+          <t>1068 (550, 1938)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>835 (360, 1669)</t>
+          <t>900 (397, 1758)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>114 (49, 244)</t>
+          <t>118 (51, 247)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>110 (61, 190)</t>
+          <t>116 (64, 197)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>993 (502, 1853)</t>
+          <t>1068 (550, 1938)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>835 (360, 1669)</t>
+          <t>900 (397, 1758)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>114 (49, 244)</t>
+          <t>118 (51, 247)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>110 (61, 190)</t>
+          <t>116 (64, 197)</t>
         </is>
       </c>
     </row>
@@ -3991,42 +3991,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>977 (490, 1833)</t>
+          <t>1054 (540, 1924)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>821 (350, 1650)</t>
+          <t>887 (388, 1745)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>113 (48, 241)</t>
+          <t>117 (50, 246)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>109 (59, 187)</t>
+          <t>115 (63, 196)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>977 (490, 1833)</t>
+          <t>1054 (540, 1924)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>821 (350, 1650)</t>
+          <t>887 (388, 1745)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>113 (48, 241)</t>
+          <t>117 (50, 246)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>109 (59, 187)</t>
+          <t>115 (63, 196)</t>
         </is>
       </c>
     </row>
@@ -4053,42 +4053,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>960 (479, 1812)</t>
+          <t>1037 (529, 1907)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>807 (341, 1630)</t>
+          <t>872 (378, 1729)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>111 (47, 239)</t>
+          <t>116 (49, 244)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>107 (58, 185)</t>
+          <t>114 (62, 194)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>960 (479, 1812)</t>
+          <t>1037 (529, 1907)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>807 (341, 1630)</t>
+          <t>872 (378, 1729)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>111 (47, 239)</t>
+          <t>116 (49, 244)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>107 (58, 185)</t>
+          <t>114 (62, 194)</t>
         </is>
       </c>
     </row>
@@ -4115,42 +4115,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>943 (467, 1790)</t>
+          <t>1020 (516, 1889)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>792 (332, 1608)</t>
+          <t>856 (369, 1711)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>109 (46, 237)</t>
+          <t>115 (49, 243)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>105 (57, 183)</t>
+          <t>112 (61, 193)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>943 (467, 1790)</t>
+          <t>1020 (516, 1889)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>792 (332, 1608)</t>
+          <t>856 (369, 1711)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>109 (46, 237)</t>
+          <t>115 (49, 243)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>105 (57, 183)</t>
+          <t>112 (61, 193)</t>
         </is>
       </c>
     </row>
@@ -4177,42 +4177,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>925 (455, 1766)</t>
+          <t>1001 (504, 1869)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>776 (322, 1586)</t>
+          <t>839 (358, 1691)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>107 (45, 234)</t>
+          <t>113 (48, 241)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>103 (55, 181)</t>
+          <t>111 (60, 191)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>925 (455, 1766)</t>
+          <t>1001 (504, 1869)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>776 (322, 1586)</t>
+          <t>839 (358, 1691)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>107 (45, 234)</t>
+          <t>113 (48, 241)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>103 (55, 181)</t>
+          <t>111 (60, 191)</t>
         </is>
       </c>
     </row>
@@ -4239,42 +4239,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>905 (442, 1742)</t>
+          <t>981 (491, 1847)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>759 (312, 1563)</t>
+          <t>821 (348, 1671)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>105 (44, 231)</t>
+          <t>112 (47, 239)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>101 (54, 178)</t>
+          <t>109 (59, 189)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>905 (442, 1742)</t>
+          <t>981 (491, 1847)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>759 (312, 1563)</t>
+          <t>821 (348, 1671)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>105 (44, 231)</t>
+          <t>112 (47, 239)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>101 (54, 178)</t>
+          <t>109 (59, 189)</t>
         </is>
       </c>
     </row>
@@ -4301,42 +4301,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>886 (430, 1717)</t>
+          <t>961 (478, 1824)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>742 (303, 1538)</t>
+          <t>803 (338, 1648)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>103 (43, 228)</t>
+          <t>110 (46, 237)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>99 (53, 176)</t>
+          <t>107 (58, 187)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>886 (430, 1717)</t>
+          <t>961 (478, 1824)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>742 (303, 1538)</t>
+          <t>803 (338, 1648)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>103 (43, 228)</t>
+          <t>110 (46, 237)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>99 (53, 176)</t>
+          <t>107 (58, 187)</t>
         </is>
       </c>
     </row>
@@ -4363,42 +4363,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>866 (418, 1691)</t>
+          <t>941 (465, 1799)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>724 (293, 1513)</t>
+          <t>786 (327, 1624)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>101 (42, 225)</t>
+          <t>108 (45, 234)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>97 (51, 174)</t>
+          <t>105 (57, 185)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>866 (418, 1691)</t>
+          <t>941 (465, 1799)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>724 (293, 1513)</t>
+          <t>786 (327, 1624)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>101 (42, 225)</t>
+          <t>108 (45, 234)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>97 (51, 174)</t>
+          <t>105 (57, 185)</t>
         </is>
       </c>
     </row>

--- a/latest_projections/DailyProjections_citywide20221130.xlsx
+++ b/latest_projections/DailyProjections_citywide20221130.xlsx
@@ -458,32 +458,32 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21443 (16491, 28604)</t>
+          <t>24510 (19103, 32358)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2309 (1967, 2800)</t>
+          <t>2474 (2121, 2965)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>159 (103, 228)</t>
+          <t>173 (112, 250)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>134 (79, 201)</t>
+          <t>147 (87, 220)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>24 (15, 35)</t>
+          <t>26 (16, 38)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>20 (12, 30)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -493,22 +493,22 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>157 (102, 226)</t>
+          <t>166 (109, 239)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>132 (78, 199)</t>
+          <t>140 (84, 210)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>24 (14, 35)</t>
+          <t>25 (15, 37)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>20 (12, 29)</t>
         </is>
       </c>
     </row>
@@ -535,32 +535,32 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21073 (16136, 28483)</t>
+          <t>24119 (18679, 32303)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2279 (1926, 2804)</t>
+          <t>2452 (2087, 2978)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>158 (102, 227)</t>
+          <t>172 (111, 250)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>133 (79, 200)</t>
+          <t>146 (86, 220)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>24 (14, 35)</t>
+          <t>26 (16, 38)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>20 (12, 30)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -570,22 +570,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>156 (102, 226)</t>
+          <t>167 (109, 240)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>132 (78, 199)</t>
+          <t>141 (84, 212)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>24 (14, 35)</t>
+          <t>25 (15, 37)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>20 (12, 29)</t>
         </is>
       </c>
     </row>
@@ -612,32 +612,32 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20716 (15736, 28449)</t>
+          <t>23715 (18215, 32307)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2255 (1889, 2815)</t>
+          <t>2436 (2059, 3000)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>157 (101, 227)</t>
+          <t>171 (110, 249)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>132 (78, 200)</t>
+          <t>145 (85, 219)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>24 (14, 35)</t>
+          <t>26 (16, 38)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>20 (12, 30)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -647,22 +647,22 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>156 (102, 226)</t>
+          <t>168 (110, 242)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>132 (78, 199)</t>
+          <t>142 (84, 213)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>24 (15, 35)</t>
+          <t>25 (15, 37)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>20 (12, 29)</t>
         </is>
       </c>
     </row>
@@ -689,32 +689,32 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20378 (15319, 28417)</t>
+          <t>23352 (17743, 32311)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2235 (1855, 2833)</t>
+          <t>2428 (2036, 3032)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>155 (100, 226)</t>
+          <t>170 (109, 249)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>131 (77, 199)</t>
+          <t>144 (84, 219)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>24 (14, 35)</t>
+          <t>26 (16, 38)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -724,22 +724,22 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>156 (102, 226)</t>
+          <t>169 (110, 243)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>132 (78, 199)</t>
+          <t>142 (84, 214)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>24 (14, 35)</t>
+          <t>25 (15, 37)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>20 (12, 30)</t>
         </is>
       </c>
     </row>
@@ -766,57 +766,57 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20046 (14898, 28342)</t>
+          <t>22984 (17281, 32251)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2215 (1822, 2853)</t>
+          <t>2419 (2010, 3066)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>154 (99, 226)</t>
+          <t>169 (108, 249)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>130 (76, 198)</t>
+          <t>142 (83, 218)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>23 (14, 35)</t>
+          <t>26 (16, 38)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>14 (10, 22)</t>
+          <t>14 (10, 23)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>156 (102, 226)</t>
+          <t>169 (110, 244)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>132 (77, 199)</t>
+          <t>143 (84, 215)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>24 (14, 35)</t>
+          <t>25 (16, 37)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>20 (12, 30)</t>
         </is>
       </c>
     </row>
@@ -843,57 +843,57 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>19723 (14509, 28247)</t>
+          <t>22622 (16822, 32159)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2192 (1785, 2867)</t>
+          <t>2406 (1979, 3095)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>152 (97, 225)</t>
+          <t>168 (107, 248)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>128 (75, 197)</t>
+          <t>141 (82, 218)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>23 (14, 35)</t>
+          <t>26 (16, 38)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>18 (11, 28)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>14 (10, 22)</t>
+          <t>14 (10, 23)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>156 (101, 227)</t>
+          <t>170 (110, 246)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>131 (77, 200)</t>
+          <t>143 (85, 216)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>24 (14, 35)</t>
+          <t>25 (16, 38)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>20 (12, 30)</t>
         </is>
       </c>
     </row>
@@ -920,57 +920,57 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>19394 (14112, 28132)</t>
+          <t>22235 (16374, 31987)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2167 (1745, 2877)</t>
+          <t>2386 (1943, 3115)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>151 (96, 224)</t>
+          <t>166 (106, 247)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>127 (73, 196)</t>
+          <t>139 (81, 216)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>23 (14, 35)</t>
+          <t>26 (16, 38)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>18 (11, 28)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>14 (10, 22)</t>
+          <t>14 (10, 23)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>156 (101, 227)</t>
+          <t>170 (110, 247)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>131 (77, 200)</t>
+          <t>143 (85, 217)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>24 (14, 35)</t>
+          <t>25 (16, 38)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>20 (12, 30)</t>
         </is>
       </c>
     </row>
@@ -997,57 +997,57 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>19315 (13918, 28335)</t>
+          <t>22137 (16134, 32214)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2139 (1705, 2882)</t>
+          <t>2361 (1903, 3127)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>149 (94, 222)</t>
+          <t>164 (104, 246)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>125 (72, 195)</t>
+          <t>137 (79, 215)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>23 (14, 34)</t>
+          <t>26 (15, 38)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>18 (11, 28)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>14 (10, 22)</t>
+          <t>14 (10, 23)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>156 (101, 227)</t>
+          <t>170 (110, 247)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>131 (77, 200)</t>
+          <t>143 (84, 218)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>24 (14, 35)</t>
+          <t>26 (16, 38)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>20 (12, 30)</t>
         </is>
       </c>
     </row>
@@ -1074,57 +1074,57 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>19402 (13843, 28809)</t>
+          <t>22213 (16048, 32684)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2114 (1666, 2889)</t>
+          <t>2335 (1863, 3139)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>147 (92, 221)</t>
+          <t>162 (102, 245)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>123 (71, 193)</t>
+          <t>135 (78, 213)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>23 (14, 34)</t>
+          <t>25 (15, 38)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>18 (11, 27)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>14 (10, 22)</t>
+          <t>14 (10, 23)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>155 (100, 227)</t>
+          <t>170 (109, 248)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>131 (76, 200)</t>
+          <t>143 (84, 218)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>23 (14, 35)</t>
+          <t>25 (16, 38)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>20 (12, 30)</t>
         </is>
       </c>
     </row>
@@ -1151,57 +1151,57 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>19403 (13718, 29116)</t>
+          <t>22182 (15889, 32964)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2091 (1631, 2902)</t>
+          <t>2312 (1825, 3153)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>144 (90, 220)</t>
+          <t>160 (100, 244)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>121 (69, 192)</t>
+          <t>133 (76, 212)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>23 (13, 34)</t>
+          <t>25 (15, 38)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>18 (11, 27)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>14 (10, 22)</t>
+          <t>14 (10, 23)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>155 (99, 227)</t>
+          <t>170 (109, 249)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>130 (76, 200)</t>
+          <t>143 (83, 218)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>23 (14, 35)</t>
+          <t>25 (16, 38)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
     </row>
@@ -1228,57 +1228,57 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19348 (13564, 29350)</t>
+          <t>22100 (15703, 33148)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2075 (1601, 2921)</t>
+          <t>2294 (1791, 3173)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>143 (89, 219)</t>
+          <t>158 (99, 243)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>120 (68, 191)</t>
+          <t>132 (75, 211)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>22 (13, 34)</t>
+          <t>25 (15, 38)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>18 (10, 27)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>14 (10, 22)</t>
+          <t>14 (10, 23)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>154 (99, 227)</t>
+          <t>169 (108, 249)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>130 (75, 199)</t>
+          <t>142 (83, 218)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>23 (14, 35)</t>
+          <t>25 (15, 38)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
     </row>
@@ -1305,57 +1305,57 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>19268 (13407, 29485)</t>
+          <t>21965 (15500, 33227)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2061 (1574, 2944)</t>
+          <t>2278 (1761, 3196)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>141 (87, 219)</t>
+          <t>156 (97, 242)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>118 (67, 191)</t>
+          <t>130 (74, 211)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>22 (13, 34)</t>
+          <t>25 (15, 38)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>17 (10, 27)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>14 (9, 22)</t>
+          <t>14 (10, 23)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>153 (98, 226)</t>
+          <t>168 (107, 249)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>129 (75, 199)</t>
+          <t>141 (82, 218)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>23 (14, 35)</t>
+          <t>25 (15, 38)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>18 (11, 28)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
     </row>
@@ -1382,57 +1382,57 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>19159 (13229, 29558)</t>
+          <t>21807 (15278, 33222)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2050 (1549, 2970)</t>
+          <t>2265 (1733, 3220)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>140 (86, 219)</t>
+          <t>155 (96, 242)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>117 (66, 191)</t>
+          <t>129 (73, 210)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>22 (13, 34)</t>
+          <t>24 (15, 38)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>17 (10, 27)</t>
+          <t>19 (11, 31)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>14 (9, 22)</t>
+          <t>14 (10, 23)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>152 (97, 226)</t>
+          <t>167 (106, 249)</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>128 (74, 198)</t>
+          <t>140 (81, 218)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>23 (14, 35)</t>
+          <t>25 (15, 38)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>18 (11, 28)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
     </row>
@@ -1459,57 +1459,57 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19028 (13049, 29581)</t>
+          <t>21608 (15037, 33159)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2040 (1526, 2995)</t>
+          <t>2252 (1705, 3243)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>138 (84, 218)</t>
+          <t>154 (94, 241)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>116 (65, 190)</t>
+          <t>128 (72, 210)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21 (13, 33)</t>
+          <t>24 (14, 38)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>17 (10, 27)</t>
+          <t>19 (11, 30)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>14 (9, 22)</t>
+          <t>14 (10, 23)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>151 (95, 225)</t>
+          <t>166 (105, 248)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>127 (73, 198)</t>
+          <t>139 (80, 217)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>23 (14, 34)</t>
+          <t>25 (15, 38)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>18 (11, 28)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
     </row>
@@ -1536,47 +1536,47 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20516 (16007, 27144)</t>
+          <t>22476 (17645, 29581)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2246 (1920, 2706)</t>
+          <t>2392 (2060, 2854)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>159 (103, 228)</t>
+          <t>166 (109, 239)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>134 (80, 200)</t>
+          <t>141 (84, 211)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>24 (15, 36)</t>
+          <t>25 (15, 36)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>19 (11, 29)</t>
+          <t>19 (12, 29)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>13 (9, 22)</t>
+          <t>14 (10, 22)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>161 (105, 231)</t>
+          <t>164 (107, 235)</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>136 (81, 203)</t>
+          <t>138 (82, 207)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1613,52 +1613,52 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20023 (15514, 26868)</t>
+          <t>21970 (17107, 29326)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2209 (1873, 2699)</t>
+          <t>2365 (2021, 2856)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>157 (102, 226)</t>
+          <t>165 (107, 238)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>132 (78, 198)</t>
+          <t>140 (83, 210)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>24 (15, 35)</t>
+          <t>25 (15, 36)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>19 (12, 29)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>13 (9, 22)</t>
+          <t>14 (10, 22)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>160 (105, 231)</t>
+          <t>164 (107, 235)</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>135 (80, 203)</t>
+          <t>138 (82, 207)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>24 (15, 36)</t>
+          <t>25 (15, 36)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1690,52 +1690,52 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>19547 (15006, 26676)</t>
+          <t>21488 (16567, 29135)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2176 (1830, 2697)</t>
+          <t>2342 (1986, 2868)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>154 (100, 224)</t>
+          <t>164 (106, 237)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>130 (77, 196)</t>
+          <t>138 (82, 208)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>24 (15, 35)</t>
+          <t>25 (15, 36)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>19 (12, 29)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>13 (9, 22)</t>
+          <t>14 (10, 22)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>160 (104, 231)</t>
+          <t>164 (107, 236)</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>135 (80, 203)</t>
+          <t>138 (82, 208)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>24 (15, 36)</t>
+          <t>25 (15, 36)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1767,52 +1767,52 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>19108 (14509, 26480)</t>
+          <t>21030 (16035, 28975)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2146 (1790, 2701)</t>
+          <t>2321 (1952, 2883)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>152 (98, 222)</t>
+          <t>162 (105, 235)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>127 (75, 194)</t>
+          <t>136 (80, 206)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>24 (14, 35)</t>
+          <t>25 (15, 36)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>19 (12, 29)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>13 (9, 22)</t>
+          <t>14 (10, 22)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>160 (104, 231)</t>
+          <t>164 (107, 236)</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>134 (80, 202)</t>
+          <t>138 (82, 208)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>24 (15, 36)</t>
+          <t>25 (15, 36)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1844,57 +1844,57 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>18685 (14022, 26282)</t>
+          <t>20604 (15527, 28783)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2116 (1749, 2706)</t>
+          <t>2298 (1914, 2896)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>150 (97, 219)</t>
+          <t>160 (103, 233)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>125 (74, 192)</t>
+          <t>135 (79, 205)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>24 (14, 35)</t>
+          <t>25 (15, 36)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>19 (12, 29)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>13 (9, 22)</t>
+          <t>14 (10, 22)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>159 (103, 230)</t>
+          <t>164 (107, 237)</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>134 (79, 202)</t>
+          <t>138 (82, 208)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>24 (15, 36)</t>
+          <t>25 (15, 36)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>19 (12, 29)</t>
+          <t>20 (12, 29)</t>
         </is>
       </c>
     </row>
@@ -1921,57 +1921,57 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>18272 (13550, 26067)</t>
+          <t>20187 (15047, 28573)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2083 (1705, 2707)</t>
+          <t>2270 (1872, 2905)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>147 (94, 217)</t>
+          <t>158 (101, 231)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>123 (72, 189)</t>
+          <t>132 (77, 202)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>23 (14, 35)</t>
+          <t>24 (15, 36)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>18 (11, 28)</t>
+          <t>19 (12, 29)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>13 (9, 22)</t>
+          <t>14 (10, 22)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>159 (103, 230)</t>
+          <t>164 (106, 237)</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>133 (79, 202)</t>
+          <t>138 (82, 209)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>24 (15, 36)</t>
+          <t>25 (15, 36)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>19 (12, 29)</t>
+          <t>20 (12, 29)</t>
         </is>
       </c>
     </row>
@@ -1998,52 +1998,52 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>17865 (13100, 25845)</t>
+          <t>19770 (14578, 28333)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2046 (1658, 2703)</t>
+          <t>2237 (1825, 2905)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>144 (92, 214)</t>
+          <t>155 (99, 229)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>120 (70, 186)</t>
+          <t>130 (76, 200)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>23 (14, 34)</t>
+          <t>24 (15, 36)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>18 (11, 28)</t>
+          <t>19 (12, 29)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>13 (9, 22)</t>
+          <t>14 (10, 22)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>158 (102, 229)</t>
+          <t>164 (106, 237)</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>133 (78, 201)</t>
+          <t>138 (81, 209)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>24 (15, 35)</t>
+          <t>25 (15, 36)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2075,57 +2075,57 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>17593 (12764, 25795)</t>
+          <t>19489 (14225, 28261)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2008 (1610, 2695)</t>
+          <t>2200 (1775, 2901)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>141 (90, 211)</t>
+          <t>152 (97, 226)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>117 (68, 184)</t>
+          <t>127 (74, 197)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>23 (14, 34)</t>
+          <t>24 (15, 36)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>18 (11, 27)</t>
+          <t>19 (11, 29)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>13 (9, 22)</t>
+          <t>14 (10, 22)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>157 (101, 228)</t>
+          <t>163 (106, 237)</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>132 (77, 200)</t>
+          <t>137 (81, 209)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>24 (15, 35)</t>
+          <t>25 (15, 36)</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>19 (11, 29)</t>
+          <t>20 (12, 29)</t>
         </is>
       </c>
     </row>
@@ -2152,57 +2152,57 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>17400 (12500, 25853)</t>
+          <t>19309 (13948, 28330)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1969 (1562, 2687)</t>
+          <t>2163 (1726, 2897)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>138 (87, 208)</t>
+          <t>149 (94, 223)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>115 (66, 181)</t>
+          <t>124 (71, 194)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>22 (14, 34)</t>
+          <t>24 (14, 36)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>18 (11, 27)</t>
+          <t>19 (11, 29)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>13 (9, 21)</t>
+          <t>14 (9, 22)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>155 (100, 227)</t>
+          <t>162 (105, 237)</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>130 (77, 199)</t>
+          <t>137 (80, 208)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>24 (14, 35)</t>
+          <t>25 (15, 36)</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>19 (12, 29)</t>
         </is>
       </c>
     </row>
@@ -2229,57 +2229,57 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>17181 (12213, 25835)</t>
+          <t>19073 (13661, 28304)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1933 (1517, 2680)</t>
+          <t>2127 (1679, 2894)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>135 (85, 205)</t>
+          <t>146 (92, 221)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>112 (64, 178)</t>
+          <t>121 (69, 192)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>22 (13, 33)</t>
+          <t>24 (14, 36)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>17 (10, 27)</t>
+          <t>19 (11, 29)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>13 (9, 21)</t>
+          <t>14 (9, 22)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>154 (99, 226)</t>
+          <t>161 (104, 236)</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>129 (76, 198)</t>
+          <t>136 (79, 207)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>24 (14, 35)</t>
+          <t>24 (15, 36)</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>19 (12, 29)</t>
         </is>
       </c>
     </row>
@@ -2306,57 +2306,57 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>16931 (11929, 25765)</t>
+          <t>18820 (13349, 28207)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1900 (1474, 2677)</t>
+          <t>2093 (1634, 2892)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>132 (83, 202)</t>
+          <t>143 (89, 218)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>109 (62, 175)</t>
+          <t>118 (67, 189)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>22 (13, 33)</t>
+          <t>23 (14, 35)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>17 (10, 26)</t>
+          <t>18 (11, 28)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>13 (9, 21)</t>
+          <t>14 (9, 22)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>152 (98, 224)</t>
+          <t>160 (103, 235)</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>128 (74, 196)</t>
+          <t>135 (79, 206)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>23 (14, 35)</t>
+          <t>24 (15, 36)</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>19 (12, 29)</t>
         </is>
       </c>
     </row>
@@ -2383,57 +2383,57 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>16680 (11640, 25664)</t>
+          <t>18542 (13050, 28067)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1868 (1433, 2676)</t>
+          <t>2062 (1592, 2892)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>129 (80, 200)</t>
+          <t>140 (87, 215)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>107 (61, 173)</t>
+          <t>116 (66, 187)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>21 (13, 33)</t>
+          <t>23 (14, 35)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>17 (10, 26)</t>
+          <t>18 (11, 28)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>13 (9, 21)</t>
+          <t>14 (9, 22)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>150 (96, 222)</t>
+          <t>158 (102, 234)</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>126 (73, 195)</t>
+          <t>133 (77, 205)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>23 (14, 35)</t>
+          <t>24 (15, 36)</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>19 (11, 28)</t>
+          <t>19 (12, 29)</t>
         </is>
       </c>
     </row>
@@ -2460,57 +2460,57 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>16417 (11350, 25539)</t>
+          <t>18264 (12755, 27908)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1839 (1395, 2676)</t>
+          <t>2032 (1552, 2890)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>126 (78, 197)</t>
+          <t>137 (85, 213)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>104 (59, 171)</t>
+          <t>113 (64, 184)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>21 (12, 32)</t>
+          <t>23 (13, 35)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>16 (10, 26)</t>
+          <t>18 (11, 28)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>13 (9, 21)</t>
+          <t>14 (9, 22)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>148 (94, 221)</t>
+          <t>157 (100, 232)</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>124 (72, 193)</t>
+          <t>131 (76, 204)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>23 (14, 34)</t>
+          <t>24 (15, 36)</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>18 (11, 28)</t>
+          <t>19 (12, 29)</t>
         </is>
       </c>
     </row>
@@ -2537,57 +2537,57 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>16142 (11062, 25376)</t>
+          <t>17969 (12443, 27671)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1810 (1358, 2674)</t>
+          <t>2002 (1513, 2888)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>123 (76, 195)</t>
+          <t>134 (83, 211)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>102 (57, 168)</t>
+          <t>111 (62, 182)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>20 (12, 32)</t>
+          <t>22 (13, 34)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>16 (9, 25)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>13 (9, 21)</t>
+          <t>13 (9, 22)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>146 (93, 219)</t>
+          <t>155 (99, 231)</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>122 (71, 191)</t>
+          <t>130 (75, 202)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>23 (14, 34)</t>
+          <t>24 (14, 36)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>18 (11, 28)</t>
+          <t>19 (12, 29)</t>
         </is>
       </c>
     </row>
@@ -2689,42 +2689,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1075 (578, 1915)</t>
+          <t>1162 (619, 2093)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>914 (417, 1739)</t>
+          <t>990 (449, 1904)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>117 (52, 241)</t>
+          <t>128 (57, 261)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>114 (63, 190)</t>
+          <t>122 (68, 205)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1075 (578, 1915)</t>
+          <t>1162 (619, 2093)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>914 (417, 1739)</t>
+          <t>990 (449, 1904)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>117 (52, 241)</t>
+          <t>128 (57, 261)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>114 (63, 190)</t>
+          <t>122 (68, 205)</t>
         </is>
       </c>
     </row>
@@ -2751,42 +2751,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1076 (578, 1918)</t>
+          <t>1167 (620, 2104)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>915 (418, 1742)</t>
+          <t>994 (450, 1913)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>117 (52, 241)</t>
+          <t>129 (57, 262)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>114 (63, 190)</t>
+          <t>123 (69, 206)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1076 (578, 1918)</t>
+          <t>1167 (620, 2104)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>915 (418, 1742)</t>
+          <t>994 (450, 1913)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>117 (52, 241)</t>
+          <t>129 (57, 262)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>114 (63, 190)</t>
+          <t>123 (69, 206)</t>
         </is>
       </c>
     </row>
@@ -2813,42 +2813,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1077 (577, 1922)</t>
+          <t>1169 (619, 2116)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>914 (418, 1746)</t>
+          <t>996 (449, 1922)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>117 (51, 241)</t>
+          <t>129 (57, 263)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>114 (63, 190)</t>
+          <t>123 (69, 207)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1077 (577, 1922)</t>
+          <t>1169 (619, 2116)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>914 (418, 1746)</t>
+          <t>996 (449, 1922)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>117 (51, 241)</t>
+          <t>129 (57, 263)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>114 (63, 190)</t>
+          <t>123 (69, 207)</t>
         </is>
       </c>
     </row>
@@ -2875,42 +2875,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1076 (576, 1925)</t>
+          <t>1171 (617, 2126)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>913 (416, 1750)</t>
+          <t>996 (446, 1930)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>116 (51, 241)</t>
+          <t>129 (57, 264)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>113 (63, 190)</t>
+          <t>124 (69, 208)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1076 (576, 1925)</t>
+          <t>1171 (617, 2126)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>913 (416, 1750)</t>
+          <t>996 (446, 1930)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>116 (51, 241)</t>
+          <t>129 (57, 264)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>113 (63, 190)</t>
+          <t>124 (69, 208)</t>
         </is>
       </c>
     </row>
@@ -2937,42 +2937,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1074 (572, 1929)</t>
+          <t>1169 (613, 2133)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>912 (414, 1754)</t>
+          <t>995 (443, 1936)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>116 (51, 241)</t>
+          <t>130 (57, 265)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>113 (63, 190)</t>
+          <t>124 (69, 209)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1074 (572, 1929)</t>
+          <t>1169 (613, 2133)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>912 (414, 1754)</t>
+          <t>995 (443, 1936)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>116 (51, 241)</t>
+          <t>130 (57, 265)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>113 (63, 190)</t>
+          <t>124 (69, 209)</t>
         </is>
       </c>
     </row>
@@ -2999,42 +2999,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1070 (568, 1931)</t>
+          <t>1166 (608, 2139)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>909 (410, 1757)</t>
+          <t>992 (439, 1941)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>116 (51, 241)</t>
+          <t>130 (57, 266)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>113 (62, 189)</t>
+          <t>124 (69, 210)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1070 (568, 1931)</t>
+          <t>1166 (608, 2139)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>909 (410, 1757)</t>
+          <t>992 (439, 1941)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>116 (51, 241)</t>
+          <t>130 (57, 266)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>113 (62, 189)</t>
+          <t>124 (69, 210)</t>
         </is>
       </c>
     </row>
@@ -3061,42 +3061,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1066 (563, 1932)</t>
+          <t>1162 (603, 2141)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>905 (406, 1757)</t>
+          <t>986 (435, 1942)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>115 (51, 241)</t>
+          <t>130 (57, 267)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>113 (62, 189)</t>
+          <t>124 (69, 210)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1066 (563, 1932)</t>
+          <t>1162 (603, 2141)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>905 (406, 1757)</t>
+          <t>986 (435, 1942)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>115 (51, 241)</t>
+          <t>130 (57, 267)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>113 (62, 189)</t>
+          <t>124 (69, 210)</t>
         </is>
       </c>
     </row>
@@ -3123,42 +3123,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1059 (556, 1931)</t>
+          <t>1156 (596, 2142)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>899 (401, 1756)</t>
+          <t>980 (429, 1942)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>115 (50, 241)</t>
+          <t>130 (57, 268)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>112 (62, 189)</t>
+          <t>124 (68, 211)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1059 (556, 1931)</t>
+          <t>1156 (596, 2142)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>899 (401, 1756)</t>
+          <t>980 (429, 1942)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>115 (50, 241)</t>
+          <t>130 (57, 268)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>112 (62, 189)</t>
+          <t>124 (68, 211)</t>
         </is>
       </c>
     </row>
@@ -3185,42 +3185,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1051 (549, 1929)</t>
+          <t>1148 (588, 2139)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>892 (395, 1752)</t>
+          <t>972 (423, 1939)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>114 (50, 241)</t>
+          <t>130 (57, 269)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>111 (61, 188)</t>
+          <t>124 (68, 211)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1051 (549, 1929)</t>
+          <t>1148 (588, 2139)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>892 (395, 1752)</t>
+          <t>972 (423, 1939)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>114 (50, 241)</t>
+          <t>130 (57, 269)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>111 (61, 188)</t>
+          <t>124 (68, 211)</t>
         </is>
       </c>
     </row>
@@ -3247,42 +3247,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1042 (540, 1925)</t>
+          <t>1139 (579, 2136)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>883 (389, 1748)</t>
+          <t>963 (415, 1933)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>114 (49, 240)</t>
+          <t>130 (56, 269)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>111 (60, 188)</t>
+          <t>123 (67, 212)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1042 (540, 1925)</t>
+          <t>1139 (579, 2136)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>883 (389, 1748)</t>
+          <t>963 (415, 1933)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>114 (49, 240)</t>
+          <t>130 (56, 269)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>111 (60, 188)</t>
+          <t>123 (67, 212)</t>
         </is>
       </c>
     </row>
@@ -3309,42 +3309,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1032 (531, 1919)</t>
+          <t>1129 (569, 2131)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>874 (382, 1741)</t>
+          <t>952 (408, 1927)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>113 (49, 240)</t>
+          <t>130 (56, 270)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>110 (60, 187)</t>
+          <t>123 (67, 212)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1032 (531, 1919)</t>
+          <t>1129 (569, 2131)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>874 (382, 1741)</t>
+          <t>952 (408, 1927)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>113 (49, 240)</t>
+          <t>130 (56, 270)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>110 (60, 187)</t>
+          <t>123 (67, 212)</t>
         </is>
       </c>
     </row>
@@ -3371,42 +3371,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1021 (522, 1912)</t>
+          <t>1119 (560, 2123)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>865 (375, 1733)</t>
+          <t>942 (400, 1920)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>112 (48, 239)</t>
+          <t>129 (55, 270)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>109 (59, 187)</t>
+          <t>122 (66, 212)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1021 (522, 1912)</t>
+          <t>1119 (560, 2123)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>865 (375, 1733)</t>
+          <t>942 (400, 1920)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>112 (48, 239)</t>
+          <t>129 (55, 270)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>109 (59, 187)</t>
+          <t>122 (66, 212)</t>
         </is>
       </c>
     </row>
@@ -3433,42 +3433,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1011 (513, 1905)</t>
+          <t>1108 (551, 2115)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>855 (369, 1725)</t>
+          <t>932 (393, 1911)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>111 (47, 238)</t>
+          <t>128 (54, 269)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>108 (58, 186)</t>
+          <t>121 (65, 212)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1011 (513, 1905)</t>
+          <t>1108 (551, 2115)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>855 (369, 1725)</t>
+          <t>932 (393, 1911)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>111 (47, 238)</t>
+          <t>128 (54, 269)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>108 (58, 186)</t>
+          <t>121 (65, 212)</t>
         </is>
       </c>
     </row>
@@ -3495,42 +3495,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1001 (505, 1898)</t>
+          <t>1098 (543, 2106)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>845 (363, 1717)</t>
+          <t>922 (387, 1902)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>110 (47, 237)</t>
+          <t>127 (54, 269)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>107 (57, 185)</t>
+          <t>120 (64, 211)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1001 (505, 1898)</t>
+          <t>1098 (543, 2106)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>845 (363, 1717)</t>
+          <t>922 (387, 1902)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>110 (47, 237)</t>
+          <t>127 (54, 269)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>107 (57, 185)</t>
+          <t>120 (64, 211)</t>
         </is>
       </c>
     </row>
@@ -3557,42 +3557,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1112 (587, 1978)</t>
+          <t>1121 (608, 2011)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>941 (426, 1793)</t>
+          <t>952 (444, 1827)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>122 (53, 252)</t>
+          <t>124 (54, 255)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>119 (66, 201)</t>
+          <t>120 (66, 203)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1112 (587, 1978)</t>
+          <t>1121 (608, 2011)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>941 (426, 1793)</t>
+          <t>952 (444, 1827)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>122 (53, 252)</t>
+          <t>124 (54, 255)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>119 (66, 201)</t>
+          <t>120 (66, 203)</t>
         </is>
       </c>
     </row>
@@ -3619,42 +3619,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1110 (583, 1975)</t>
+          <t>1124 (609, 2013)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>939 (425, 1791)</t>
+          <t>955 (444, 1829)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>121 (52, 252)</t>
+          <t>124 (54, 255)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>119 (66, 200)</t>
+          <t>120 (66, 203)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1110 (583, 1975)</t>
+          <t>1124 (609, 2013)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>939 (425, 1791)</t>
+          <t>955 (444, 1829)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>121 (52, 252)</t>
+          <t>124 (54, 255)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>119 (66, 200)</t>
+          <t>120 (66, 203)</t>
         </is>
       </c>
     </row>
@@ -3681,42 +3681,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1105 (579, 1969)</t>
+          <t>1124 (607, 2016)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>935 (422, 1788)</t>
+          <t>955 (442, 1830)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>121 (52, 251)</t>
+          <t>124 (54, 255)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>118 (66, 200)</t>
+          <t>120 (66, 203)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1105 (579, 1969)</t>
+          <t>1124 (607, 2016)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>935 (422, 1788)</t>
+          <t>955 (442, 1830)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>121 (52, 251)</t>
+          <t>124 (54, 255)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>118 (66, 200)</t>
+          <t>120 (66, 203)</t>
         </is>
       </c>
     </row>
@@ -3743,42 +3743,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1099 (573, 1964)</t>
+          <t>1123 (603, 2017)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>929 (417, 1783)</t>
+          <t>953 (439, 1832)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>120 (52, 250)</t>
+          <t>124 (54, 255)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>118 (66, 199)</t>
+          <t>120 (66, 203)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1099 (573, 1964)</t>
+          <t>1123 (603, 2017)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>929 (417, 1783)</t>
+          <t>953 (439, 1832)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>120 (52, 250)</t>
+          <t>124 (54, 255)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>118 (66, 199)</t>
+          <t>120 (66, 203)</t>
         </is>
       </c>
     </row>
@@ -3805,42 +3805,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1091 (566, 1958)</t>
+          <t>1118 (598, 2018)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>921 (412, 1777)</t>
+          <t>948 (435, 1831)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>120 (51, 249)</t>
+          <t>124 (54, 255)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>117 (65, 199)</t>
+          <t>120 (65, 203)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1091 (566, 1958)</t>
+          <t>1118 (598, 2018)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>921 (412, 1777)</t>
+          <t>948 (435, 1831)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>120 (51, 249)</t>
+          <t>124 (54, 255)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>117 (65, 199)</t>
+          <t>120 (65, 203)</t>
         </is>
       </c>
     </row>
@@ -3867,42 +3867,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1080 (559, 1949)</t>
+          <t>1112 (591, 2014)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>911 (405, 1769)</t>
+          <t>941 (429, 1829)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>119 (51, 248)</t>
+          <t>124 (54, 255)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>116 (65, 198)</t>
+          <t>119 (65, 203)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1080 (559, 1949)</t>
+          <t>1112 (591, 2014)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>911 (405, 1769)</t>
+          <t>941 (429, 1829)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>119 (51, 248)</t>
+          <t>124 (54, 255)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>116 (65, 198)</t>
+          <t>119 (65, 203)</t>
         </is>
       </c>
     </row>
@@ -3929,42 +3929,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1068 (550, 1938)</t>
+          <t>1103 (583, 2010)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>900 (397, 1758)</t>
+          <t>932 (422, 1823)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>118 (51, 247)</t>
+          <t>124 (53, 255)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>116 (64, 197)</t>
+          <t>119 (65, 203)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1068 (550, 1938)</t>
+          <t>1103 (583, 2010)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>900 (397, 1758)</t>
+          <t>932 (422, 1823)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>118 (51, 247)</t>
+          <t>124 (53, 255)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>116 (64, 197)</t>
+          <t>119 (65, 203)</t>
         </is>
       </c>
     </row>
@@ -3991,42 +3991,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1054 (540, 1924)</t>
+          <t>1091 (573, 2002)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>887 (388, 1745)</t>
+          <t>920 (413, 1815)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>117 (50, 246)</t>
+          <t>123 (53, 255)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>115 (63, 196)</t>
+          <t>118 (65, 203)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1054 (540, 1924)</t>
+          <t>1091 (573, 2002)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>887 (388, 1745)</t>
+          <t>920 (413, 1815)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>117 (50, 246)</t>
+          <t>123 (53, 255)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>115 (63, 196)</t>
+          <t>118 (65, 203)</t>
         </is>
       </c>
     </row>
@@ -4053,42 +4053,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1037 (529, 1907)</t>
+          <t>1077 (563, 1992)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>872 (378, 1729)</t>
+          <t>906 (404, 1804)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>116 (49, 244)</t>
+          <t>123 (53, 255)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>114 (62, 194)</t>
+          <t>118 (64, 202)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1037 (529, 1907)</t>
+          <t>1077 (563, 1992)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>872 (378, 1729)</t>
+          <t>906 (404, 1804)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>116 (49, 244)</t>
+          <t>123 (53, 255)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>114 (62, 194)</t>
+          <t>118 (64, 202)</t>
         </is>
       </c>
     </row>
@@ -4115,42 +4115,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1020 (516, 1889)</t>
+          <t>1062 (551, 1979)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>856 (369, 1711)</t>
+          <t>891 (394, 1791)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>115 (49, 243)</t>
+          <t>122 (52, 254)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>112 (61, 193)</t>
+          <t>117 (63, 201)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1020 (516, 1889)</t>
+          <t>1062 (551, 1979)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>856 (369, 1711)</t>
+          <t>891 (394, 1791)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>115 (49, 243)</t>
+          <t>122 (52, 254)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>112 (61, 193)</t>
+          <t>117 (63, 201)</t>
         </is>
       </c>
     </row>
@@ -4177,42 +4177,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1001 (504, 1869)</t>
+          <t>1046 (538, 1964)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>839 (358, 1691)</t>
+          <t>876 (384, 1775)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>113 (48, 241)</t>
+          <t>121 (52, 254)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>111 (60, 191)</t>
+          <t>116 (63, 201)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1001 (504, 1869)</t>
+          <t>1046 (538, 1964)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>839 (358, 1691)</t>
+          <t>876 (384, 1775)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>113 (48, 241)</t>
+          <t>121 (52, 254)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>111 (60, 191)</t>
+          <t>116 (63, 201)</t>
         </is>
       </c>
     </row>
@@ -4239,42 +4239,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>981 (491, 1847)</t>
+          <t>1028 (526, 1945)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>821 (348, 1671)</t>
+          <t>860 (373, 1758)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>112 (47, 239)</t>
+          <t>120 (51, 253)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>109 (59, 189)</t>
+          <t>115 (62, 200)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>981 (491, 1847)</t>
+          <t>1028 (526, 1945)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>821 (348, 1671)</t>
+          <t>860 (373, 1758)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>112 (47, 239)</t>
+          <t>120 (51, 253)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>109 (59, 189)</t>
+          <t>115 (62, 200)</t>
         </is>
       </c>
     </row>
@@ -4301,42 +4301,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>961 (478, 1824)</t>
+          <t>1009 (513, 1926)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>803 (338, 1648)</t>
+          <t>843 (362, 1739)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>110 (46, 237)</t>
+          <t>119 (50, 252)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>107 (58, 187)</t>
+          <t>114 (61, 198)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>961 (478, 1824)</t>
+          <t>1009 (513, 1926)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>803 (338, 1648)</t>
+          <t>843 (362, 1739)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>110 (46, 237)</t>
+          <t>119 (50, 252)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>107 (58, 187)</t>
+          <t>114 (61, 198)</t>
         </is>
       </c>
     </row>
@@ -4363,42 +4363,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>941 (465, 1799)</t>
+          <t>990 (500, 1906)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>786 (327, 1624)</t>
+          <t>825 (351, 1719)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>108 (45, 234)</t>
+          <t>117 (49, 250)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>105 (57, 185)</t>
+          <t>112 (60, 197)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>941 (465, 1799)</t>
+          <t>990 (500, 1906)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>786 (327, 1624)</t>
+          <t>825 (351, 1719)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>108 (45, 234)</t>
+          <t>117 (49, 250)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>105 (57, 185)</t>
+          <t>112 (60, 197)</t>
         </is>
       </c>
     </row>
